--- a/BAI - wykaz godzin.xlsx
+++ b/BAI - wykaz godzin.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="27405" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="27870" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>Zadanie</t>
   </si>
@@ -96,13 +96,19 @@
   </si>
   <si>
     <t>Stworzenie przykladowych eventów i spotkań</t>
+  </si>
+  <si>
+    <t>Bartek</t>
+  </si>
+  <si>
+    <t>zespół</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +117,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -140,7 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -148,6 +163,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B24" sqref="B24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +628,7 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -649,6 +665,42 @@
       </c>
       <c r="C19" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>SUM(B5:B13)</f>
+        <v>205</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f>SUM(B2:B4)</f>
+        <v>165</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>SUM(B14:B19)</f>
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="5">
+        <f>B21+B22+B23</f>
+        <v>429</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
